--- a/WIP/HWR Core Comparison_2.3b12+WIP.xlsx
+++ b/WIP/HWR Core Comparison_2.3b12+WIP.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="106">
   <si>
     <t>Cost</t>
   </si>
@@ -303,35 +303,59 @@
     <t>2.3 Players Patch build 12</t>
   </si>
   <si>
-    <t>1k less than average of hw2</t>
-  </si>
-  <si>
-    <t>Average of hw2</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>WIP Cost</t>
-  </si>
-  <si>
-    <t>Just add 100 ru to kus_capitalshipdrive and kus_capitalshipchassis.</t>
-  </si>
-  <si>
-    <t>Just add 100ru to kus_corvettechassis.</t>
-  </si>
-  <si>
-    <t>Just add hw1 bomber tech back, 400ru 40sec</t>
-  </si>
-  <si>
     <t>Leave as is.</t>
+  </si>
+  <si>
+    <t>Ideal Cost</t>
+  </si>
+  <si>
+    <t>Action to take</t>
+  </si>
+  <si>
+    <t>Add hw1 bomber tech back, 400ru 40sec</t>
+  </si>
+  <si>
+    <t>Target 19850, average of hw2.</t>
+  </si>
+  <si>
+    <t>Target 17075, average of hw2.</t>
+  </si>
+  <si>
+    <t>Target 21725, average of hw2.</t>
+  </si>
+  <si>
+    <t>Target 12725, 1k less than average of hw2.</t>
+  </si>
+  <si>
+    <t>Target 8250, 1k less than average of hw2.</t>
+  </si>
+  <si>
+    <t>365 more</t>
+  </si>
+  <si>
+    <t>150 more</t>
+  </si>
+  <si>
+    <t>Add 100ru to kus_corvettechassis.</t>
+  </si>
+  <si>
+    <t>225 more</t>
+  </si>
+  <si>
+    <t>Add 100 ru to kus_capitalshipdrive and kus_capitalshipchassis.</t>
+  </si>
+  <si>
+    <t>325 more</t>
+  </si>
+  <si>
+    <t>2650 more</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -364,6 +388,21 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -419,7 +458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -474,6 +513,8 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -836,7 +877,8 @@
     <col min="9" max="9" width="35.7109375" style="8" customWidth="1"/>
     <col min="10" max="11" width="8.7109375" style="14" customWidth="1"/>
     <col min="12" max="12" width="5.7109375" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="34"/>
+    <col min="13" max="13" width="12" style="34" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.7109375" style="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -870,9 +912,9 @@
         <v>1</v>
       </c>
       <c r="M1" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="N1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N1" s="36" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1027,11 +1069,11 @@
         <f>SUM(K3:K5)</f>
         <v>80</v>
       </c>
-      <c r="M7" s="34">
-        <v>150</v>
-      </c>
-      <c r="N7" t="s">
-        <v>96</v>
+      <c r="M7" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="N7" s="37" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1171,11 +1213,8 @@
         <f>(K$8*$I11)</f>
         <v>630</v>
       </c>
-      <c r="M11" s="34">
-        <v>8250</v>
-      </c>
-      <c r="N11" t="s">
-        <v>90</v>
+      <c r="M11" s="34" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1215,6 +1254,7 @@
         <v>1260</v>
       </c>
       <c r="M12" s="34"/>
+      <c r="N12" s="37"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
@@ -1273,6 +1313,7 @@
         <v>45</v>
       </c>
       <c r="M15" s="34"/>
+      <c r="N15" s="37"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
@@ -1394,6 +1435,7 @@
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
       <c r="M20" s="34"/>
+      <c r="N20" s="37"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
@@ -1422,11 +1464,11 @@
         <f>SUM(K15:K18)</f>
         <v>161</v>
       </c>
-      <c r="M21" s="34">
-        <v>365</v>
-      </c>
-      <c r="N21" s="11" t="s">
-        <v>95</v>
+      <c r="M21" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="N21" s="37" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -1566,11 +1608,8 @@
         <f>(K$22*$I25)</f>
         <v>798</v>
       </c>
-      <c r="M25" s="34">
-        <v>12725</v>
-      </c>
-      <c r="N25" s="11" t="s">
-        <v>90</v>
+      <c r="M25" s="34" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1610,6 +1649,7 @@
         <v>1596</v>
       </c>
       <c r="M26" s="34"/>
+      <c r="N26" s="37"/>
     </row>
     <row r="27" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="14"/>
@@ -1620,6 +1660,7 @@
       <c r="J27" s="15"/>
       <c r="K27" s="15"/>
       <c r="M27" s="34"/>
+      <c r="N27" s="37"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -1786,11 +1827,11 @@
         <f>SUM(K29:K31)</f>
         <v>202</v>
       </c>
-      <c r="M34" s="34">
-        <v>225</v>
-      </c>
-      <c r="N34" s="11" t="s">
-        <v>94</v>
+      <c r="M34" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="N34" s="37" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -1926,11 +1967,8 @@
         <f>(K$35*$I38)</f>
         <v>1320</v>
       </c>
-      <c r="M38" s="34">
-        <v>21725</v>
-      </c>
-      <c r="N38" s="11" t="s">
-        <v>91</v>
+      <c r="M38" s="34" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1970,6 +2008,7 @@
         <v>2640</v>
       </c>
       <c r="M39" s="34"/>
+      <c r="N39" s="37"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
@@ -2053,6 +2092,7 @@
         <v>99</v>
       </c>
       <c r="M43" s="34"/>
+      <c r="N43" s="37"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
@@ -2114,6 +2154,7 @@
       <c r="J46" s="14"/>
       <c r="K46" s="14"/>
       <c r="M46" s="34"/>
+      <c r="N46" s="37"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
@@ -2142,11 +2183,11 @@
         <f>SUM(K42:K43)</f>
         <v>134</v>
       </c>
-      <c r="M47" s="34">
-        <v>325</v>
-      </c>
-      <c r="N47" s="11" t="s">
-        <v>97</v>
+      <c r="M47" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="N47" s="37" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -2283,11 +2324,8 @@
         <f>(K$48*$I51)</f>
         <v>725</v>
       </c>
-      <c r="M51" s="34">
-        <v>17075</v>
-      </c>
-      <c r="N51" s="11" t="s">
-        <v>91</v>
+      <c r="M51" s="34" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -2327,6 +2365,7 @@
         <v>1450</v>
       </c>
       <c r="M52" s="34"/>
+      <c r="N52" s="37"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
@@ -2448,6 +2487,7 @@
       <c r="J58" s="14"/>
       <c r="K58" s="14"/>
       <c r="M58" s="34"/>
+      <c r="N58" s="37"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
@@ -2518,6 +2558,7 @@
       <c r="J61" s="14"/>
       <c r="K61" s="14"/>
       <c r="M61" s="34"/>
+      <c r="N61" s="37"/>
     </row>
     <row r="62" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="12"/>
@@ -2551,11 +2592,11 @@
       <c r="L62" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="M62" s="34">
-        <v>2650</v>
-      </c>
-      <c r="N62" s="11" t="s">
-        <v>97</v>
+      <c r="M62" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="N62" s="37" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
@@ -2667,11 +2708,8 @@
         <f>J65+(I65*$L$63)</f>
         <v>17200</v>
       </c>
-      <c r="M65" s="34">
-        <v>19850</v>
-      </c>
-      <c r="N65" s="11" t="s">
-        <v>91</v>
+      <c r="M65" s="34" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
@@ -2754,6 +2792,7 @@
         <v>27400</v>
       </c>
       <c r="M67" s="34"/>
+      <c r="N67" s="37"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E69" s="11"/>
